--- a/public/uploads/KPI colectores de polvo.xlsx
+++ b/public/uploads/KPI colectores de polvo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Contrato info completa\KPI contrtato\KPI Septiembre 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Contrato info completa\KPI contrtato\Octubre 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="29">
   <si>
     <t>DIAS</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPI Colectores de polvo </t>
+  </si>
+  <si>
+    <t>No se puede acceder, produccion realizando trabajos</t>
   </si>
 </sst>
 </file>
@@ -252,22 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,14 +281,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,18 +707,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
@@ -723,8 +735,8 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10">
-        <v>44795</v>
+      <c r="B5" s="7">
+        <v>44826</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -732,51 +744,51 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
-        <v>44796</v>
+      <c r="B10" s="7">
+        <v>44827</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -784,21 +796,21 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>44797</v>
+      <c r="B12" s="7">
+        <v>44830</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -806,41 +818,41 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
+      <c r="B14" s="7"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
-        <v>44798</v>
+        <v>44831</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -848,7 +860,7 @@
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="13"/>
@@ -858,7 +870,7 @@
       <c r="D17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="13"/>
@@ -868,7 +880,7 @@
       <c r="D18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
@@ -878,7 +890,7 @@
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
@@ -888,11 +900,11 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
-        <v>44799</v>
+      <c r="B21" s="7">
+        <v>44832</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -900,41 +912,41 @@
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
+      <c r="B23" s="7"/>
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+      <c r="B24" s="7"/>
       <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="9"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
-        <v>44802</v>
+      <c r="B25" s="7">
+        <v>44833</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
@@ -942,51 +954,51 @@
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
+      <c r="B26" s="7"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
+      <c r="B27" s="7"/>
       <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="14"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="14"/>
+      <c r="E28" s="9"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="9"/>
     </row>
     <row r="30" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10">
-        <v>44803</v>
+      <c r="B30" s="7">
+        <v>44834</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -994,41 +1006,41 @@
       <c r="D30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="11"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="11"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="11"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="11"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="10">
-        <v>44804</v>
+      <c r="B34" s="7">
+        <v>44837</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>6</v>
@@ -1036,31 +1048,31 @@
       <c r="D34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
+      <c r="B35" s="7"/>
       <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
+      <c r="B36" s="7"/>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="11"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10">
-        <v>44805</v>
+      <c r="B37" s="7">
+        <v>44838</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>13</v>
@@ -1068,61 +1080,61 @@
       <c r="D37" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="11"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
+      <c r="B38" s="7"/>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="11"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
+      <c r="B39" s="7"/>
       <c r="C39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="11"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
+      <c r="B41" s="7"/>
       <c r="C41" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="11"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
+      <c r="B42" s="7"/>
       <c r="C42" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="10">
-        <v>44806</v>
+      <c r="B43" s="7">
+        <v>44839</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
@@ -1130,21 +1142,21 @@
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="11"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
+      <c r="B44" s="7"/>
       <c r="C44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="11"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10">
-        <v>44809</v>
+      <c r="B45" s="7">
+        <v>44840</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>7</v>
@@ -1152,83 +1164,83 @@
       <c r="D45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="6"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10">
-        <v>44810</v>
+      <c r="B49" s="7">
+        <v>44841</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="6"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="50" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="16"/>
     </row>
     <row r="52" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="10">
-        <v>44811</v>
+      <c r="B53" s="7">
+        <v>44845</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>4</v>
@@ -1236,51 +1248,51 @@
       <c r="D53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="10"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="5"/>
     </row>
     <row r="58" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10">
-        <v>44812</v>
+      <c r="B58" s="7">
+        <v>44846</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>13</v>
@@ -1288,41 +1300,41 @@
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="11"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
+      <c r="B59" s="7"/>
       <c r="C59" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="11"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="11"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="10"/>
+      <c r="B61" s="7"/>
       <c r="C61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E61" s="11"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10">
-        <v>44813</v>
+      <c r="B62" s="7">
+        <v>44847</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
@@ -1330,41 +1342,41 @@
       <c r="D62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
+      <c r="B65" s="7"/>
       <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="10">
-        <v>44816</v>
+      <c r="B66" s="7">
+        <v>44848</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -1372,51 +1384,51 @@
       <c r="D66" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="6"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="10"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="10"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="10"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E69" s="7"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="10"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="10">
-        <v>44817</v>
+      <c r="B71" s="7">
+        <v>44851</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>13</v>
@@ -1424,41 +1436,41 @@
       <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="10"/>
+      <c r="B72" s="7"/>
       <c r="C72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="11"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="10"/>
+      <c r="B73" s="7"/>
       <c r="C73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="11"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="10"/>
+      <c r="B74" s="7"/>
       <c r="C74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="11"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="10">
-        <v>44818</v>
+      <c r="B75" s="7">
+        <v>44852</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
@@ -1466,41 +1478,41 @@
       <c r="D75" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E75" s="6"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="10"/>
+      <c r="B76" s="7"/>
       <c r="C76" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="10"/>
+      <c r="B77" s="7"/>
       <c r="C77" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E77" s="7"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="10"/>
+      <c r="B78" s="7"/>
       <c r="C78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="8"/>
+      <c r="E78" s="5"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="10">
-        <v>44819</v>
+      <c r="B79" s="7">
+        <v>44853</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -1508,51 +1520,51 @@
       <c r="D79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="9"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="10"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E80" s="9"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" s="10"/>
+      <c r="B81" s="7"/>
       <c r="C81" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="9"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B82" s="10"/>
+      <c r="B82" s="7"/>
       <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="10"/>
+      <c r="B83" s="7"/>
       <c r="C83" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="10">
-        <v>44824</v>
+      <c r="B84" s="7">
+        <v>44854</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -1560,40 +1572,58 @@
       <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E84" s="9"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="10"/>
+      <c r="B85" s="7"/>
       <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="9"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="10"/>
+      <c r="B86" s="7"/>
       <c r="C86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="9"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B87" s="10"/>
+      <c r="B87" s="7"/>
       <c r="C87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="9"/>
+      <c r="E87" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="40">
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="E45:E48"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E25:E29"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E24"/>
     <mergeCell ref="E53:E57"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="E34:E36"/>
@@ -1601,25 +1631,6 @@
     <mergeCell ref="E37:E42"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E45:E48"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="E25:E29"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E62:E65"/>
     <mergeCell ref="E75:E78"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="E84:E87"/>
@@ -1633,8 +1644,8 @@
     <mergeCell ref="E66:E70"/>
     <mergeCell ref="B58:B61"/>
     <mergeCell ref="E58:E61"/>
-    <mergeCell ref="E49:E52"/>
     <mergeCell ref="E79:E83"/>
+    <mergeCell ref="B25:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="39" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/public/uploads/KPI colectores de polvo.xlsx
+++ b/public/uploads/KPI colectores de polvo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\plan matriz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabri\Desktop\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE1DE67-2CA6-4550-BCF9-3FAEA05BE1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17494372-5EE1-4820-AA80-015B4686BB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="29">
   <si>
     <t>DIAS</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">KPI Colectores de polvo </t>
+  </si>
+  <si>
+    <t>No se puede acceder, produccion realizando trabajos</t>
   </si>
 </sst>
 </file>
@@ -253,12 +256,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -270,11 +285,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -294,8 +306,8 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -683,7 +695,7 @@
   <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,18 +707,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -723,8 +735,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>44795</v>
+      <c r="A4" s="6">
+        <v>44826</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -732,51 +744,51 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>44796</v>
+      <c r="A9" s="6">
+        <v>44827</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
@@ -784,21 +796,21 @@
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>44797</v>
+      <c r="A11" s="6">
+        <v>44830</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -806,41 +818,41 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>44798</v>
+      <c r="A15" s="16">
+        <v>44831</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>4</v>
@@ -848,51 +860,51 @@
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="5"/>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>44799</v>
+      <c r="A20" s="6">
+        <v>44832</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>13</v>
@@ -900,41 +912,41 @@
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
       <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>44802</v>
+      <c r="A24" s="6">
+        <v>44833</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -942,51 +954,51 @@
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="12"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>44803</v>
+      <c r="A29" s="6">
+        <v>44834</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -994,41 +1006,41 @@
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
       <c r="B32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>44804</v>
+      <c r="A33" s="6">
+        <v>44837</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>6</v>
@@ -1036,31 +1048,31 @@
       <c r="C33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
       <c r="B34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
       <c r="B35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>44805</v>
+      <c r="A36" s="6">
+        <v>44838</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>13</v>
@@ -1068,61 +1080,61 @@
       <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
       <c r="B38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
       <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
       <c r="B40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>44806</v>
+      <c r="A42" s="6">
+        <v>44839</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>9</v>
@@ -1130,21 +1142,21 @@
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
       <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>44809</v>
+      <c r="A44" s="6">
+        <v>44840</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>7</v>
@@ -1152,52 +1164,52 @@
       <c r="C44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
       <c r="B45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
       <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="5"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>44810</v>
+      <c r="A48" s="6">
+        <v>44841</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
       <c r="B49" s="2" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1219,7 @@
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
+      <c r="A50" s="6"/>
       <c r="B50" s="2" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1229,7 @@
       <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
+      <c r="A51" s="6"/>
       <c r="B51" s="2" t="s">
         <v>25</v>
       </c>
@@ -1227,8 +1239,8 @@
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>44811</v>
+      <c r="A52" s="6">
+        <v>44845</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
@@ -1236,51 +1248,51 @@
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
+      <c r="A53" s="6"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
+      <c r="A54" s="6"/>
       <c r="B54" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7"/>
+      <c r="A55" s="6"/>
       <c r="B55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7"/>
+      <c r="A56" s="6"/>
       <c r="B56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="5"/>
+      <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>44812</v>
+      <c r="A57" s="6">
+        <v>44846</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
@@ -1288,41 +1300,41 @@
       <c r="C57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7"/>
+      <c r="A58" s="6"/>
       <c r="B58" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7"/>
+      <c r="A59" s="6"/>
       <c r="B59" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="8"/>
+      <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7"/>
+      <c r="A60" s="6"/>
       <c r="B60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>44813</v>
+      <c r="A61" s="6">
+        <v>44847</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>7</v>
@@ -1330,41 +1342,41 @@
       <c r="C61" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="10"/>
+      <c r="D61" s="13"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7"/>
+      <c r="A62" s="6"/>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="11"/>
+      <c r="D62" s="14"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7"/>
+      <c r="A63" s="6"/>
       <c r="B63" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="11"/>
+      <c r="D63" s="14"/>
     </row>
     <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
+      <c r="A64" s="6"/>
       <c r="B64" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="15"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>44816</v>
+      <c r="A65" s="6">
+        <v>44848</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -1372,51 +1384,51 @@
       <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7"/>
+      <c r="A66" s="6"/>
       <c r="B66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7"/>
+      <c r="A67" s="6"/>
       <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7"/>
+      <c r="A68" s="6"/>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7"/>
+      <c r="A69" s="6"/>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
-        <v>44817</v>
+      <c r="A70" s="6">
+        <v>44851</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>13</v>
@@ -1424,41 +1436,41 @@
       <c r="C70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7"/>
+      <c r="A71" s="6"/>
       <c r="B71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
+      <c r="A72" s="6"/>
       <c r="B72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7"/>
+      <c r="A73" s="6"/>
       <c r="B73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
-        <v>44818</v>
+      <c r="A74" s="6">
+        <v>44852</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -1466,41 +1478,41 @@
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="3"/>
+      <c r="D74" s="7"/>
     </row>
     <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7"/>
+      <c r="A75" s="6"/>
       <c r="B75" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7"/>
+      <c r="A76" s="6"/>
       <c r="B76" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7"/>
+      <c r="A77" s="6"/>
       <c r="B77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="5"/>
+      <c r="D77" s="9"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="7">
-        <v>44819</v>
+      <c r="A78" s="6">
+        <v>44853</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
@@ -1508,51 +1520,51 @@
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="17"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="7"/>
+      <c r="A79" s="6"/>
       <c r="B79" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="17"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="7"/>
+      <c r="A80" s="6"/>
       <c r="B80" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="17"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7"/>
+      <c r="A81" s="6"/>
       <c r="B81" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="17"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="7"/>
+      <c r="A82" s="6"/>
       <c r="B82" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="6"/>
+      <c r="D82" s="17"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="7">
-        <v>44824</v>
+      <c r="A83" s="6">
+        <v>44854</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
@@ -1560,52 +1572,55 @@
       <c r="C83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="17"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="7"/>
+      <c r="A84" s="6"/>
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D84" s="6"/>
+      <c r="D84" s="17"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7"/>
+      <c r="A85" s="6"/>
       <c r="B85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="17"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="7"/>
+      <c r="A86" s="6"/>
       <c r="B86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="6"/>
+      <c r="D86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D24:D28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="D29:D32"/>
+  <mergeCells count="40">
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D83:D86"/>
+    <mergeCell ref="A78:A82"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D65:D69"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="D57:D60"/>
+    <mergeCell ref="D78:D82"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="D11:D14"/>
@@ -1619,22 +1634,18 @@
     <mergeCell ref="D36:D41"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D83:D86"/>
-    <mergeCell ref="A78:A82"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A69"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D65:D69"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="D57:D60"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D78:D82"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D24:D28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="D29:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="39" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
